--- a/assets/posts/tatausaha/2018/06/01-number.xlsx
+++ b/assets/posts/tatausaha/2018/06/01-number.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Angka" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="59">
   <si>
     <t xml:space="preserve">Format</t>
   </si>
@@ -157,9 +157,15 @@
     <t xml:space="preserve">#.##0,00</t>
   </si>
   <si>
+    <t xml:space="preserve">Rp.</t>
+  </si>
+  <si>
     <t xml:space="preserve">* #.##0,00</t>
   </si>
   <si>
+    <t xml:space="preserve">*.#.##0,00</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rp.* #.##0,00</t>
   </si>
   <si>
@@ -167,9 +173,6 @@
   </si>
   <si>
     <t xml:space="preserve">[Red]* \(#.##0,00\)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rp.</t>
   </si>
   <si>
     <t xml:space="preserve">* #.##0,00 ;</t>
@@ -203,7 +206,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="29">
+  <numFmts count="30">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0"/>
     <numFmt numFmtId="166" formatCode="00"/>
@@ -227,14 +230,15 @@
     <numFmt numFmtId="184" formatCode="0,000"/>
     <numFmt numFmtId="185" formatCode="#,##0.00"/>
     <numFmt numFmtId="186" formatCode="* #,##0.00"/>
-    <numFmt numFmtId="187" formatCode="&quot;Rp.&quot;* #,##0.00"/>
-    <numFmt numFmtId="188" formatCode="[BLUE]* #,##0.00\ ;[RED]* \(#,##0.00\)"/>
-    <numFmt numFmtId="189" formatCode="* #,##0.00\ ;* \(#,##0.00\);* \-#\ ;@\ "/>
-    <numFmt numFmtId="190" formatCode="* #,##0.00\ ;* \(#,##0.00\);* \-#\ ;[RED]&quot;Nilai &quot;@\?"/>
-    <numFmt numFmtId="191" formatCode="&quot; Rp&quot;* #,##0.00\ ;&quot;-Rp&quot;* #,##0.00\ ;&quot; Rp&quot;* \-#\ ;@\ "/>
-    <numFmt numFmtId="192" formatCode="&quot; Rp&quot;* #,##0.00\ ;&quot;-Rp&quot;* #,##0.00\ ;&quot; Rp&quot;* \-#\ ;@"/>
+    <numFmt numFmtId="187" formatCode="*_#,##0.00"/>
+    <numFmt numFmtId="188" formatCode="&quot;Rp.&quot;* #,##0.00"/>
+    <numFmt numFmtId="189" formatCode="[BLUE]* #,##0.00\ ;[RED]* \(#,##0.00\)"/>
+    <numFmt numFmtId="190" formatCode="* #,##0.00\ ;* \(#,##0.00\);* \-#\ ;@\ "/>
+    <numFmt numFmtId="191" formatCode="* #,##0.00\ ;* \(#,##0.00\);* \-#\ ;[RED]&quot;Nilai &quot;@\?"/>
+    <numFmt numFmtId="192" formatCode="&quot; Rp&quot;* #,##0.00\ ;&quot;-Rp&quot;* #,##0.00\ ;&quot; Rp&quot;* \-#\ ;@\ "/>
+    <numFmt numFmtId="193" formatCode="&quot; Rp&quot;* #,##0.00\ ;&quot;-Rp&quot;* #,##0.00\ ;&quot; Rp&quot;* \-#\ ;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -261,6 +265,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Inconsolata"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -447,7 +457,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="60">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -624,6 +634,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -652,15 +666,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="190" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="191" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="192" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="190" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="191" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="192" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="193" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -890,8 +924,8 @@
   </sheetPr>
   <dimension ref="B1:F22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1082,7 +1116,7 @@
   <dimension ref="B1:D12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1172,24 +1206,20 @@
     <tabColor rgb="FF00796B"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:G36"/>
+  <dimension ref="B1:G38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="G31" activeCellId="0" sqref="G31"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E41" activeCellId="0" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="2.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="15.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="17.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="5.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="17.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="2.55"/>
   </cols>
   <sheetData>
@@ -1243,330 +1273,364 @@
       <c r="E8" s="43"/>
     </row>
     <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="44" t="s">
         <v>41</v>
       </c>
       <c r="C9" s="42"/>
       <c r="D9" s="42"/>
       <c r="E9" s="43"/>
       <c r="F9" s="21"/>
-      <c r="G9" s="44" t="n">
+      <c r="G9" s="45" t="n">
         <v>8005002</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="44" t="s">
         <v>41</v>
       </c>
       <c r="C10" s="42"/>
       <c r="D10" s="42"/>
       <c r="E10" s="43"/>
       <c r="F10" s="21"/>
-      <c r="G10" s="44" t="n">
+      <c r="G10" s="45" t="n">
         <v>-8005002</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="8.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="41"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="42"/>
       <c r="D11" s="42"/>
       <c r="E11" s="43"/>
     </row>
     <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="44" t="s">
         <v>42</v>
       </c>
       <c r="C12" s="42"/>
       <c r="D12" s="42"/>
       <c r="E12" s="43"/>
       <c r="F12" s="21"/>
-      <c r="G12" s="45" t="n">
+      <c r="G12" s="46" t="n">
         <v>8005002</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="44" t="s">
         <v>42</v>
       </c>
       <c r="C13" s="42"/>
       <c r="D13" s="42"/>
       <c r="E13" s="43"/>
       <c r="F13" s="21"/>
-      <c r="G13" s="45" t="n">
+      <c r="G13" s="46" t="n">
         <v>-8005002</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="8.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="41"/>
+      <c r="B14" s="44"/>
       <c r="C14" s="42"/>
       <c r="D14" s="42"/>
       <c r="E14" s="43"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="44" t="s">
         <v>43</v>
       </c>
       <c r="C15" s="42"/>
       <c r="D15" s="42"/>
       <c r="E15" s="43"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="46" t="n">
+      <c r="F15" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="47" t="n">
         <v>8005002</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="44" t="s">
         <v>43</v>
       </c>
       <c r="C16" s="42"/>
       <c r="D16" s="42"/>
       <c r="E16" s="43"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="46" t="n">
+      <c r="F16" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="47" t="n">
         <v>-8005002</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="8.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="41"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="42"/>
       <c r="D17" s="42"/>
       <c r="E17" s="43"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="41" t="s">
-        <v>44</v>
+      <c r="B18" s="44" t="s">
+        <v>45</v>
       </c>
       <c r="C18" s="42"/>
       <c r="D18" s="42"/>
       <c r="E18" s="43"/>
       <c r="F18" s="21"/>
-      <c r="G18" s="47" t="n">
+      <c r="G18" s="48" t="n">
         <v>8005002</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="41" t="s">
-        <v>44</v>
+      <c r="B19" s="44" t="s">
+        <v>45</v>
       </c>
       <c r="C19" s="42"/>
       <c r="D19" s="42"/>
       <c r="E19" s="43"/>
       <c r="F19" s="21"/>
-      <c r="G19" s="47" t="n">
+      <c r="G19" s="48" t="n">
         <v>-8005002</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="8.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="41"/>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="44" t="s">
+        <v>46</v>
+      </c>
       <c r="C20" s="42"/>
       <c r="D20" s="42"/>
       <c r="E20" s="43"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="41" t="s">
-        <v>45</v>
-      </c>
+      <c r="F20" s="21"/>
+      <c r="G20" s="49" t="n">
+        <v>-8005002</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="8.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B21" s="44"/>
       <c r="C21" s="42"/>
       <c r="D21" s="42"/>
       <c r="E21" s="43"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="48" t="n">
-        <v>8005002</v>
-      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="41" t="s">
-        <v>45</v>
+      <c r="B22" s="44" t="s">
+        <v>47</v>
       </c>
       <c r="C22" s="42"/>
       <c r="D22" s="42"/>
       <c r="E22" s="43"/>
       <c r="F22" s="21"/>
-      <c r="G22" s="48" t="n">
-        <v>-8005002</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="8.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="41"/>
+      <c r="G22" s="50" t="n">
+        <v>8005002</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="44" t="s">
+        <v>47</v>
+      </c>
       <c r="C23" s="42"/>
       <c r="D23" s="42"/>
       <c r="E23" s="43"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="42" t="s">
-        <v>47</v>
-      </c>
+      <c r="F23" s="21"/>
+      <c r="G23" s="50" t="n">
+        <v>-8005002</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="8.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B24" s="44"/>
+      <c r="C24" s="42"/>
       <c r="D24" s="42"/>
       <c r="E24" s="43"/>
-      <c r="F24" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="G24" s="49" t="n">
-        <v>8005002</v>
-      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="41" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D25" s="42"/>
       <c r="E25" s="43"/>
       <c r="F25" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="G25" s="49" t="n">
-        <v>-8005002</v>
+        <v>44</v>
+      </c>
+      <c r="G25" s="51" t="n">
+        <v>8005002</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="41" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D26" s="42"/>
       <c r="E26" s="43"/>
       <c r="F26" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="G26" s="51" t="n">
+        <v>-8005002</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="G26" s="49" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="8.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="41"/>
-      <c r="C27" s="42"/>
+      <c r="C27" s="42" t="s">
+        <v>49</v>
+      </c>
       <c r="D27" s="42"/>
       <c r="E27" s="43"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="42" t="s">
+      <c r="F27" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="G27" s="51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="8.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B28" s="44"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="43"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="42" t="s">
+      <c r="C29" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="E28" s="43" t="s">
+      <c r="D29" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="F28" s="23"/>
-      <c r="G28" s="50" t="n">
+      <c r="E29" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" s="23"/>
+      <c r="G29" s="52" t="n">
         <v>8005002</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="42" t="s">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="42" t="s">
+      <c r="C30" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="E29" s="43" t="s">
+      <c r="D30" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="F29" s="23"/>
-      <c r="G29" s="50" t="n">
+      <c r="E30" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" s="23"/>
+      <c r="G30" s="52" t="n">
         <v>-8005002</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="42" t="s">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="42" t="s">
+      <c r="C31" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="43" t="s">
+      <c r="D31" s="42" t="s">
         <v>52</v>
-      </c>
-      <c r="F30" s="23"/>
-      <c r="G30" s="50" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="D31" s="42" t="s">
-        <v>51</v>
       </c>
       <c r="E31" s="43" t="s">
         <v>53</v>
       </c>
       <c r="F31" s="23"/>
-      <c r="G31" s="51" t="s">
+      <c r="G31" s="52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="43" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="41"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="43"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="41" t="s">
+      <c r="F32" s="23"/>
+      <c r="G32" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="42" t="s">
+    </row>
+    <row r="33" customFormat="false" ht="8.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B33" s="44"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="43"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="42" t="s">
+      <c r="C34" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="E33" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="F33" s="21"/>
-      <c r="G33" s="52" t="n">
+      <c r="D34" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="F34" s="57"/>
+      <c r="G34" s="58" t="n">
         <v>8005002</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34" s="42" t="s">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="42" t="s">
+      <c r="C35" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="E34" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="F34" s="21"/>
-      <c r="G34" s="53" t="n">
+      <c r="D35" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="F35" s="57"/>
+      <c r="G35" s="59" t="n">
         <v>-8005002</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="8.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="41"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="43"/>
-    </row>
-    <row r="36" customFormat="false" ht="8.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="F36" s="57"/>
+      <c r="G36" s="59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="8.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B37" s="41"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="43"/>
+    </row>
+    <row r="38" customFormat="false" ht="8.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:C2"/>
